--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T10:03:56+00:00</t>
+    <t>2025-12-01T10:44:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T10:44:44+00:00</t>
+    <t>2025-12-01T10:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T10:53:44+00:00</t>
+    <t>2025-12-01T11:21:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T11:21:12+00:00</t>
+    <t>2025-12-02T14:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:44:33+00:00</t>
+    <t>2025-12-03T09:15:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T09:15:05+00:00</t>
+    <t>2025-12-03T10:23:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
+++ b/setup-repo/StructureDefinition-mii-ex-fall-planned-end-date.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:23:08+00:00</t>
+    <t>2025-12-11T17:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
